--- a/spliced/falling/2023-03-21_15-35-27/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-27/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.067278563976287</v>
+        <v>-0.3275403976440429</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.54173904657364</v>
+        <v>-1.032773733139038</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.944739699363709</v>
+        <v>-0.2356588244438171</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2617557644844055</v>
+        <v>1.223868489265442</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7904596328735352</v>
+        <v>1.015716195106506</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3645338416099548</v>
+        <v>0.2379320114850998</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.4881105124950414</v>
+        <v>-1.590312331914902</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.259673044085503</v>
+        <v>-0.9565697163343428</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.275467619299889</v>
+        <v>-1.569369990378618</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3368921875953674</v>
+        <v>-0.2808452844619751</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3489567637443542</v>
+        <v>-0.5580254197120667</v>
       </c>
       <c r="H3" t="n">
-        <v>1.531897306442261</v>
+        <v>0.9086620807647704</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.24235272407532</v>
+        <v>0.2956193089485168</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.947445154190064</v>
+        <v>-0.9267413020133971</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.148832976818081</v>
+        <v>-1.241599485278129</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4462370574474334</v>
+        <v>-0.4292855560779571</v>
       </c>
       <c r="G4" t="n">
-        <v>2.508059978485107</v>
+        <v>-1.047786593437195</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2651155292987823</v>
+        <v>0.4741841554641723</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.217258334159848</v>
+        <v>-0.6574213504791258</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.320076808333399</v>
+        <v>-0.9026327282190323</v>
       </c>
       <c r="E5" t="n">
-        <v>9.556089490652074</v>
+        <v>-1.075559064745903</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6637051105499268</v>
+        <v>0.2979495227336883</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5948300361633301</v>
+        <v>-0.4011857509613037</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4066835343837738</v>
+        <v>0.1365283876657486</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.25036442279817</v>
+        <v>0.3167376518249511</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2667215764522569</v>
+        <v>-0.9883218407630923</v>
       </c>
       <c r="E6" t="n">
-        <v>19.65825939178468</v>
+        <v>-1.371818482875824</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1577559560537338</v>
+        <v>-0.0152716310694813</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.182427883148193</v>
+        <v>-0.2217440903186798</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.026240110397339</v>
+        <v>-0.104763388633728</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-5.869112968444829</v>
+        <v>0.4182748794555663</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.593451023101809</v>
+        <v>-0.9399109184741974</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.71562802791596</v>
+        <v>-1.527341216802597</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.560580730438232</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.920713067054748</v>
+        <v>0.0255036242306232</v>
       </c>
       <c r="H7" t="n">
-        <v>1.063363671302795</v>
+        <v>-0.0922406539320945</v>
       </c>
     </row>
     <row r="8">
@@ -653,21 +653,301 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0.2231501340866089</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.9057424068450929</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.459591150283814</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0565050356090068</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.0242818929255008</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0531452745199203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>700</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.4751685261726377</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.88183431327343</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.828994989395142</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0300851128995418</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0068722339347004</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.0010690141934901</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>800</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.972740650177002</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.058116793632508</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.322797894477844</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1162171140313148</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.3998112976551056</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1134682223200798</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>900</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.244342982769013</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.110738858580589</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2.960273459553719</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1954768747091293</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.8119926452636719</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1353066563606262</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.067278563976287</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.54173904657364</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-3.944739699363709</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.2617557644844055</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.7904596328735352</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.3645338416099548</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.4881105124950414</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.259673044085503</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4.275467619299889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3368921875953674</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3489567637443542</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.531897306442261</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.24235272407532</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.947445154190064</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.148832976818081</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.4462370574474334</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.508059978485107</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2651155292987823</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6.217258334159848</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.320076808333399</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.556089490652074</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6637051105499268</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.5948300361633301</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.4066835343837738</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10.25036442279817</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2667215764522569</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19.65825939178468</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1577559560537338</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-5.182427883148193</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-2.026240110397339</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-5.869112968444829</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2.593451023101809</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-7.71562802791596</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-3.560580730438232</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.920713067054748</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.063363671302795</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>14.12184143066406</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D18" t="n">
         <v>8.388177871704102</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E18" t="n">
         <v>14.74949073791504</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F18" t="n">
         <v>-6.374378681182861</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G18" t="n">
         <v>-4.941136360168457</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H18" t="n">
         <v>-10.62203025817871</v>
       </c>
     </row>
